--- a/medicine/Pharmacie/Ruxolitinib/Ruxolitinib.xlsx
+++ b/medicine/Pharmacie/Ruxolitinib/Ruxolitinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le ruxolitinib, commercialisé en France sous le nom de Jakavi par le laboratoire Novartis, est un inhibiteur des Janus kinase 1 et Janus kinase 2 (JAK1 et JAK2)[3]. Il est indiqué dans le traitement de certains syndromes myéloprolifératifs[4]. Il a une certaine efficacité sur la splénomégalie myéloïde[5] et semble, en particulier, plus efficace que les traitements usuels dans cette indication[6]. Il est également efficace dans la maladie de Vaquez[7].
-Les greffes de cellules souches allogéniques donnent lieu dans 50 % des cas à une maladie du greffon contre l'hôte (GVHD). Le traitement standard consiste en une administration à haute dose de glucocorticoïdes, mais certains malades ne répondent pas à ce traitement. Il n'y a pas de consensus sur un traitement alternatif. Le ruxolitinib est une alternative intéressante, mais au prix d'un risque de thrombopénie[8].
-Le 3 avril 2020, la société Novartis a démarré un essai clinique pour tester le médicament sur les cas graves de maladie à coronavirus 2019 (Covid-19)[9]. Finalement, le 14 décembre 2020, un communiqué de Novartis a fait savoir que les essais (étude de phase III) ont conclu à l'absence d'amélioration des patients[10].
-Appliqué sous forme de crème dans le vitiligo, il permet une repigmentation partielle de la peau[11].
+Le ruxolitinib, commercialisé en France sous le nom de Jakavi par le laboratoire Novartis, est un inhibiteur des Janus kinase 1 et Janus kinase 2 (JAK1 et JAK2). Il est indiqué dans le traitement de certains syndromes myéloprolifératifs. Il a une certaine efficacité sur la splénomégalie myéloïde et semble, en particulier, plus efficace que les traitements usuels dans cette indication. Il est également efficace dans la maladie de Vaquez.
+Les greffes de cellules souches allogéniques donnent lieu dans 50 % des cas à une maladie du greffon contre l'hôte (GVHD). Le traitement standard consiste en une administration à haute dose de glucocorticoïdes, mais certains malades ne répondent pas à ce traitement. Il n'y a pas de consensus sur un traitement alternatif. Le ruxolitinib est une alternative intéressante, mais au prix d'un risque de thrombopénie.
+Le 3 avril 2020, la société Novartis a démarré un essai clinique pour tester le médicament sur les cas graves de maladie à coronavirus 2019 (Covid-19). Finalement, le 14 décembre 2020, un communiqué de Novartis a fait savoir que les essais (étude de phase III) ont conclu à l'absence d'amélioration des patients.
+Appliqué sous forme de crème dans le vitiligo, il permet une repigmentation partielle de la peau.
 </t>
         </is>
       </c>
